--- a/liczby.xlsx
+++ b/liczby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -519,186 +519,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>9</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>10</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>10</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>15</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>15</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
